--- a/chap06/invoice-template.xlsx
+++ b/chap06/invoice-template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>請求書</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>金額</t>
+  </si>
+  <si>
+    <t>小計</t>
+  </si>
+  <si>
+    <t>税額</t>
   </si>
   <si>
     <t>8%対象:</t>
@@ -86,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -132,11 +138,6 @@
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W6"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -169,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -482,55 +483,130 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -546,7 +622,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -655,52 +731,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1794,8 +1864,8 @@
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="45.2109" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4219" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3594" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.4219" style="1" customWidth="1"/>
     <col min="6" max="16384" width="19.6016" style="1" customWidth="1"/>
@@ -2100,58 +2170,62 @@
       <c r="E38" s="35"/>
     </row>
     <row r="39" ht="18.3" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
     </row>
     <row r="40" ht="18.65" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
+      <c r="A40" s="38"/>
+      <c r="B40" t="s" s="39">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="39">
+        <v>17</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" ht="18.65" customHeight="1">
-      <c r="A41" t="s" s="39">
-        <v>16</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" t="s" s="42">
-        <v>17</v>
-      </c>
-      <c r="E41" s="43"/>
+      <c r="A41" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" t="s" s="44">
+        <v>19</v>
+      </c>
+      <c r="E41" s="45"/>
     </row>
     <row r="42" ht="18.65" customHeight="1">
-      <c r="A42" t="s" s="39">
-        <v>18</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
+      <c r="A42" t="s" s="42">
+        <v>20</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
       <c r="D42" t="s" s="44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E42" s="45"/>
     </row>
     <row r="43" ht="18.65" customHeight="1">
-      <c r="A43" t="s" s="39">
-        <v>20</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="41"/>
+      <c r="A43" t="s" s="42">
+        <v>22</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="46"/>
       <c r="E43" s="47"/>
     </row>
     <row r="44" ht="18.65" customHeight="1">
-      <c r="A44" t="s" s="48">
-        <v>21</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="51"/>
+      <c r="A44" t="s" s="42">
+        <v>23</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
